--- a/學生名單表格.xlsx
+++ b/學生名單表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_CamKet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C299A8-7DC6-4B22-AD15-1D48C489761D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056F11FC-66ED-4E8F-84FA-21D3B0B0E454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="8850" xr2:uid="{E4FB247C-DC93-46FC-A5A7-3C7B9E86E98B}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>REFAEL CORNELIUS HARIANJA</t>
   </si>
   <si>
-    <t>印尼</t>
-  </si>
-  <si>
     <t>就讀學系</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -137,6 +134,10 @@
   </si>
   <si>
     <t>tmot50473@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>越南</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +659,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -674,22 +675,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>5</v>
@@ -718,7 +719,7 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>1111301061</v>
@@ -727,16 +728,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <v>20040322</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
@@ -756,10 +757,10 @@
         <v>20031212</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
@@ -779,31 +780,31 @@
         <v>20040508</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5">
         <v>12345678</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="6">
         <v>20251212</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/學生名單表格.xlsx
+++ b/學生名單表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_CamKet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056F11FC-66ED-4E8F-84FA-21D3B0B0E454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E64034-36CF-4445-8DB3-0F85FE30A725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="8850" xr2:uid="{E4FB247C-DC93-46FC-A5A7-3C7B9E86E98B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>學號</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>國籍</t>
-  </si>
-  <si>
-    <t>日四技餐廚系四乙</t>
   </si>
   <si>
     <t>王少陌</t>
@@ -109,22 +106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ten lop </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Khanh test </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">test ten </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日四技餐廚系四乙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SALOMO AURELITO TAMERA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -138,6 +119,72 @@
   </si>
   <si>
     <t>越南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>iris</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liou1@gmail.com</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日四技餐廚系四乙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日四技餐廚系四乙test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日四技餐廚系四乙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -214,9 +261,9 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Microsoft YaHei"/>
       <family val="4"/>
-      <charset val="163"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -271,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,19 +338,7 @@
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -315,17 +350,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -656,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4A552F-D128-4577-B686-C99B1DB896EB}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -674,137 +699,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>1111301061</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>20040322</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>1111301062</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>20031212</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>1111302017</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>20040508</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5">
-        <v>12345678</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6">
-        <v>20251212</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -819,18 +823,15 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{6C3B04E6-4325-4ED3-ABAF-CD15B7835EF5}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{71024028-4897-4E8E-98D4-4C2AD548392D}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{C75ADDC1-B9AF-4947-A40D-3A404CB7B975}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{71024028-4897-4E8E-98D4-4C2AD548392D}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{C75ADDC1-B9AF-4947-A40D-3A404CB7B975}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{ECF8C99C-7352-4310-A333-024CA30E4CC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/學生名單表格.xlsx
+++ b/學生名單表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_CamKet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E64034-36CF-4445-8DB3-0F85FE30A725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4CB345-7B94-4327-BFB9-1FC426B85B35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="8850" xr2:uid="{E4FB247C-DC93-46FC-A5A7-3C7B9E86E98B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>學號</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -119,24 +119,6 @@
   </si>
   <si>
     <t>越南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>iris</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>liou1@gmail.com</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -684,7 +666,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -744,10 +726,10 @@
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>1111301061</v>
+        <v>1234567891</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -767,10 +749,10 @@
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
-        <v>1111301062</v>
+        <v>1234567892</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -790,10 +772,10 @@
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
-        <v>1111302017</v>
+        <v>1234567893</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -807,9 +789,7 @@
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -831,9 +811,8 @@
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{71024028-4897-4E8E-98D4-4C2AD548392D}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{C75ADDC1-B9AF-4947-A40D-3A404CB7B975}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{ECF8C99C-7352-4310-A333-024CA30E4CC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>